--- a/medicine/Mort/Ordre_de_ne_pas_réanimer/Ordre_de_ne_pas_réanimer.xlsx
+++ b/medicine/Mort/Ordre_de_ne_pas_réanimer/Ordre_de_ne_pas_réanimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ordre_de_ne_pas_r%C3%A9animer</t>
+          <t>Ordre_de_ne_pas_réanimer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre de ne pas réanimer est une procédure intervenant en amont d'un arrêt cardiaque, assez probable à terme, enjoignant aux intervenants éventuels de renoncer à suivre tout protocole habituellement requis en cette matière.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ordre_de_ne_pas_r%C3%A9animer</t>
+          <t>Ordre_de_ne_pas_réanimer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ordre de ne pas réanimer[1] (NPR[2]), également connu sous le nom de ne pas tenter de réanimation (DNAR), de ne pas tenter de réanimation cardiorespiratoire[3] (DNACPR[4]), de permettre la mort naturelle[5] ou encore d'ordre sans code[6], est un ordre juridique, écrit ou oral selon le pays, indiquant qu'une personne ne devrait pas recevoir de réanimation cardio-pulmonaire (RCR) si son cœur s'arrête de battre[6]. Parfois, ces décisions et les documents pertinents englobent également des décisions portant sur d'autres interventions médicales critiques ou qui prolongent la vie[7]. Le statut juridique et les processus entourant les commandes NPR varient d'un pays à l'autre. Le plus souvent, l'injonction émane d'un médecin qui prend en considération tant la dimension médicale que les souhaits et valeurs particulières du patient[8].
-Si depuis la loi de 2016, les directives anticipées sont contraignantes[9], elles ne sont en revanche pas opposables. En effet, elles ne s’appliquent pas en cas d’urgence vitale pendant le temps nécessaire à une évaluation complète de la situation et lorsque les directives anticipées apparaissent manifestement inappropriées ou non conformes à la situation médicale du patient.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ordre de ne pas réanimer (NPR), également connu sous le nom de ne pas tenter de réanimation (DNAR), de ne pas tenter de réanimation cardiorespiratoire (DNACPR), de permettre la mort naturelle ou encore d'ordre sans code, est un ordre juridique, écrit ou oral selon le pays, indiquant qu'une personne ne devrait pas recevoir de réanimation cardio-pulmonaire (RCR) si son cœur s'arrête de battre. Parfois, ces décisions et les documents pertinents englobent également des décisions portant sur d'autres interventions médicales critiques ou qui prolongent la vie. Le statut juridique et les processus entourant les commandes NPR varient d'un pays à l'autre. Le plus souvent, l'injonction émane d'un médecin qui prend en considération tant la dimension médicale que les souhaits et valeurs particulières du patient.
+Si depuis la loi de 2016, les directives anticipées sont contraignantes, elles ne sont en revanche pas opposables. En effet, elles ne s’appliquent pas en cas d’urgence vitale pendant le temps nécessaire à une évaluation complète de la situation et lorsque les directives anticipées apparaissent manifestement inappropriées ou non conformes à la situation médicale du patient.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ordre_de_ne_pas_r%C3%A9animer</t>
+          <t>Ordre_de_ne_pas_réanimer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Une pratique d'accompagnement psychologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans chaque cas de séjour de réanimation, le travail psychologique en réanimation a pris la forme de brèves «visites», aussi quotidiennes que possible, adressant une parole au patient quel que soit son état, avec des mots évocateurs du moment, de sa vie, à partir des éléments suscités par lui (regard, geste, respiration, posture, sont de remarquables supports à un échange). Dans chaque cas également un échange a eu lieu au moins une fois dans le service de suite[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans chaque cas de séjour de réanimation, le travail psychologique en réanimation a pris la forme de brèves «visites», aussi quotidiennes que possible, adressant une parole au patient quel que soit son état, avec des mots évocateurs du moment, de sa vie, à partir des éléments suscités par lui (regard, geste, respiration, posture, sont de remarquables supports à un échange). Dans chaque cas également un échange a eu lieu au moins une fois dans le service de suite.
 </t>
         </is>
       </c>
